--- a/output_data_cnae/output_data_cnae_full_erros.xlsx
+++ b/output_data_cnae/output_data_cnae_full_erros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
   <si>
     <t>cnpj</t>
   </si>
@@ -43,469 +43,379 @@
     <t>data_hora</t>
   </si>
   <si>
-    <t>02.275.986/0001-38</t>
-  </si>
-  <si>
-    <t>02.276.291/0001-70</t>
-  </si>
-  <si>
-    <t>02.276.340/0001-75</t>
-  </si>
-  <si>
-    <t>02.276.456/0001-04</t>
-  </si>
-  <si>
-    <t>02.276.653/0001-23</t>
-  </si>
-  <si>
-    <t>02.277.196/0001-91</t>
-  </si>
-  <si>
-    <t>02.277.205/0001-44</t>
-  </si>
-  <si>
-    <t>02.277.698/0001-12</t>
-  </si>
-  <si>
-    <t>02.278.152/0001-86</t>
-  </si>
-  <si>
-    <t>02.278.362/0001-74</t>
-  </si>
-  <si>
-    <t>02.278.372/0001-00</t>
-  </si>
-  <si>
-    <t>02.278.421/0001-04</t>
-  </si>
-  <si>
-    <t>02.278.437/0001-17</t>
-  </si>
-  <si>
-    <t>02.278.560/0001-38</t>
-  </si>
-  <si>
-    <t>02.278.625/0001-45</t>
-  </si>
-  <si>
-    <t>02.279.124/0001-83</t>
-  </si>
-  <si>
-    <t>02.308.677/0001-17</t>
-  </si>
-  <si>
-    <t>02.308.702/0001-62</t>
-  </si>
-  <si>
-    <t>02.308.827/0001-92</t>
-  </si>
-  <si>
-    <t>02.320.007/0001-16</t>
-  </si>
-  <si>
-    <t>JOAO LUIS RESENDE LIMA</t>
-  </si>
-  <si>
-    <t>SUPERMERCADO DEVEGILI LTDA</t>
-  </si>
-  <si>
-    <t>UNIGRES CERAMICA LTDA  EM RECUPERACAO JUDICIAL EM RECUPERACAO JUDICIAL</t>
-  </si>
-  <si>
-    <t>AUTO POSTO JARDINS LTDA</t>
-  </si>
-  <si>
-    <t>TRINUS CAPITAL DISTRIBUIDORA DE TITULOS E VALORES MOBILIARIOS S.A.</t>
-  </si>
-  <si>
-    <t>BIG DISTRIBUIDORA LTDA</t>
-  </si>
-  <si>
-    <t>VERT SOLUCOES EM INFORMATICA LTDA</t>
-  </si>
-  <si>
-    <t>AUTO POSTO ESQUINA LTDA</t>
-  </si>
-  <si>
-    <t>SOCIEDADE DE PORTOS E HIDROVIAS DO ESTADO DE RONDONIA</t>
-  </si>
-  <si>
-    <t>ARIZONA - ADMINISTRACAO E PARTICIPACOES LTDA</t>
-  </si>
-  <si>
-    <t>MERCEARIA GOMES LTDA</t>
-  </si>
-  <si>
-    <t>LOVANE ADMINISTRACAO DE IMOVEIS LTDA</t>
-  </si>
-  <si>
-    <t>POMERPLAST IND. E COM. DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
-    <t>PRATT &amp; WHITNEY CANADA DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>LABORATORIO DE ANALISES CLINICAS CONFIANCE LTDA.</t>
-  </si>
-  <si>
-    <t>BELLUNO PARTICIPACOES LTDA</t>
-  </si>
-  <si>
-    <t>MATA FRESCA LTDA</t>
-  </si>
-  <si>
-    <t>R. W. EMMEL &amp; CIA. LTDA.</t>
-  </si>
-  <si>
-    <t>DROGARIA E PERFUMARIA FLAMINGO LTDA</t>
-  </si>
-  <si>
-    <t>MERCADO MOIMENTA DA BEIRA LTDA E. P. P</t>
-  </si>
-  <si>
-    <t>MA</t>
+    <t>02.563.505/0001-90</t>
+  </si>
+  <si>
+    <t>02.580.640/0001-43</t>
+  </si>
+  <si>
+    <t>02.580.737/0001-56</t>
+  </si>
+  <si>
+    <t>02.581.564/0001-90</t>
+  </si>
+  <si>
+    <t>02.582.012/0001-05</t>
+  </si>
+  <si>
+    <t>02.582.024/0001-21</t>
+  </si>
+  <si>
+    <t>02.582.622/0001-09</t>
+  </si>
+  <si>
+    <t>02.582.857/0001-92</t>
+  </si>
+  <si>
+    <t>02.582.975/0001-09</t>
+  </si>
+  <si>
+    <t>02.583.452/0001-79</t>
+  </si>
+  <si>
+    <t>02.583.776/0001-07</t>
+  </si>
+  <si>
+    <t>02.583.872/0001-55</t>
+  </si>
+  <si>
+    <t>02.583.959/0001-22</t>
+  </si>
+  <si>
+    <t>02.585.477/0001-01</t>
+  </si>
+  <si>
+    <t>02.587.140/0001-33</t>
+  </si>
+  <si>
+    <t>00.000.000/0000-00</t>
+  </si>
+  <si>
+    <t>ATLANTIS CONSTRUTORA S/A</t>
+  </si>
+  <si>
+    <t>THERMADYNE VICTOR LTDA</t>
+  </si>
+  <si>
+    <t>TRADESOFT TECNOLOGIA LTDA.</t>
+  </si>
+  <si>
+    <t>GOULART TORRES ADMINISTRACAO LTDA</t>
+  </si>
+  <si>
+    <t>POSTO SOLEX LTDA</t>
+  </si>
+  <si>
+    <t>POS CASH SERVICOS DE INFORMATICA LTDA</t>
+  </si>
+  <si>
+    <t>ADITIVE PLASTICOS LTDA.</t>
+  </si>
+  <si>
+    <t>POSTO CAMPO GRANDE LTDA</t>
+  </si>
+  <si>
+    <t>TRENTO INDUSTRIA QUIMICA DE CERAS E VELAS LTDA</t>
+  </si>
+  <si>
+    <t>POUSOBAN LTDA</t>
+  </si>
+  <si>
+    <t>MARIO ROBERTO BRASILEIRA DE PETROLEO LTDA</t>
+  </si>
+  <si>
+    <t>SANTA CLARA COMERCIO DE COMBUSTIVEIS LTDA</t>
+  </si>
+  <si>
+    <t>BENASSI PARANA LTDA</t>
+  </si>
+  <si>
+    <t>ELOI CARNETE TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>VIEIRA DISTRIBUIDORA DE LATICINIOS LTDA</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>ES</t>
   </si>
   <si>
     <t>SC</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
     <t>RS</t>
   </si>
   <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>Arame</t>
-  </si>
-  <si>
-    <t>Joinville</t>
-  </si>
-  <si>
-    <t>Limeira</t>
-  </si>
-  <si>
-    <t>Aparecida de Goiânia</t>
-  </si>
-  <si>
     <t>Goiânia</t>
   </si>
   <si>
-    <t>Araguaína</t>
-  </si>
-  <si>
-    <t>Brasília</t>
-  </si>
-  <si>
-    <t>Louveira</t>
-  </si>
-  <si>
-    <t>Porto Velho</t>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Brazópolis</t>
+  </si>
+  <si>
+    <t>Eusébio</t>
+  </si>
+  <si>
+    <t>Cariacica</t>
+  </si>
+  <si>
+    <t>São João Batista</t>
+  </si>
+  <si>
+    <t>Pouso Alegre</t>
+  </si>
+  <si>
+    <t>Franca</t>
+  </si>
+  <si>
+    <t>Cachoeiro de Itapemirim</t>
   </si>
   <si>
     <t>Curitiba</t>
   </si>
   <si>
-    <t>Araguaçu</t>
-  </si>
-  <si>
-    <t>Campo Bom</t>
-  </si>
-  <si>
-    <t>Pomerode</t>
-  </si>
-  <si>
-    <t>Sorocaba</t>
-  </si>
-  <si>
-    <t>Campinas</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Mossoró</t>
-  </si>
-  <si>
-    <t>Porto Alegre</t>
-  </si>
-  <si>
-    <t>eletronica.satelite@bol.com.br</t>
+    <t>Alpestre</t>
+  </si>
+  <si>
+    <t>Guarulhos</t>
+  </si>
+  <si>
+    <t>g_contabilidade@ccbconstrutora.com.br</t>
+  </si>
+  <si>
+    <t>atendimentofiscal@esab.com.br</t>
+  </si>
+  <si>
+    <t>veram@disoft.com.br</t>
+  </si>
+  <si>
+    <t>mmafra@papinilacerda.com.br</t>
   </si>
   <si>
     <t>e-mail não cadastrado</t>
   </si>
   <si>
-    <t>unigres@unigres.com.br</t>
-  </si>
-  <si>
-    <t>ivonete@redesantos.com</t>
-  </si>
-  <si>
-    <t>administrativo@trinusco.com.br</t>
-  </si>
-  <si>
-    <t>dpbsilva@hotmail.com</t>
-  </si>
-  <si>
-    <t>compras@vert.com.br</t>
-  </si>
-  <si>
-    <t>legalizacao@atual-rnc.com.br</t>
-  </si>
-  <si>
-    <t>officeprime@mps.com.br</t>
-  </si>
-  <si>
-    <t>mercadolovane@hotmail.com</t>
-  </si>
-  <si>
-    <t>jurandir@pomerplast.com.br</t>
-  </si>
-  <si>
-    <t>fiscal@prattwhitney.com</t>
-  </si>
-  <si>
-    <t>confianceadm@confiance.com.br</t>
-  </si>
-  <si>
-    <t>fiscal@weconsultoria.com.br</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02275986000138</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02276291000170</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02276340000175</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02276456000104</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02276653000123</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02277196000191</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02277205000144</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02277698000112</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02278152000186</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02278362000174</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02278372000100</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02278421000104</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02278437000117</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02278560000138</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02278625000145</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02279124000183</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02308677000117</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02308702000162</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02308827000192</t>
-  </si>
-  <si>
-    <t>https://cnpj.biz/02320007000116</t>
-  </si>
-  <si>
-    <t>9521-5/00</t>
-  </si>
-  <si>
-    <t>4712-1/00</t>
-  </si>
-  <si>
-    <t>2342-7/01</t>
+    <t>g_cscsocietario@grupoboticario.com.br</t>
+  </si>
+  <si>
+    <t>alessandra@aditive.com.br</t>
+  </si>
+  <si>
+    <t>postocampogrande@gmail.com</t>
+  </si>
+  <si>
+    <t>trentoquimica@hotmail.com</t>
+  </si>
+  <si>
+    <t>joaopousoban@gmail.com</t>
+  </si>
+  <si>
+    <t>julio@marioroberto.com.br</t>
+  </si>
+  <si>
+    <t>guacui.adm@alfacontabilidade.com</t>
+  </si>
+  <si>
+    <t>celio@benassipr.com.br</t>
+  </si>
+  <si>
+    <t>transcarnetti@gmail.com</t>
+  </si>
+  <si>
+    <t>atendimento@jgarciacontabilidade.com.br</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02563505000190</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02580640000143</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02580737000156</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02581564000190</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02582012000105</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02582024000121</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02582622000109</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02582857000192</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02582975000109</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02583452000179</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02583776000107</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02583872000155</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02583959000122</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02585477000101</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/02587140000133</t>
+  </si>
+  <si>
+    <t>https://cnpj.biz/0000000000</t>
+  </si>
+  <si>
+    <t>7732-2/01</t>
+  </si>
+  <si>
+    <t>2829-1/99</t>
+  </si>
+  <si>
+    <t>4651-6/01</t>
+  </si>
+  <si>
+    <t>8211-3/00</t>
   </si>
   <si>
     <t>4731-8/00</t>
   </si>
   <si>
-    <t>6612-6/02</t>
-  </si>
-  <si>
-    <t>4674-5/00</t>
-  </si>
-  <si>
-    <t>6204-0/00</t>
-  </si>
-  <si>
-    <t>5231-1/01</t>
-  </si>
-  <si>
-    <t>6462-0/00</t>
-  </si>
-  <si>
-    <t>6810-2/01</t>
-  </si>
-  <si>
-    <t>2222-6/00</t>
-  </si>
-  <si>
-    <t>3316-3/01</t>
-  </si>
-  <si>
-    <t>8640-2/02</t>
-  </si>
-  <si>
-    <t>0119-9/07</t>
-  </si>
-  <si>
-    <t>4637-1/99</t>
-  </si>
-  <si>
-    <t>4771-7/01</t>
-  </si>
-  <si>
-    <t>Reparação e manutenção de equipamentos eletroeletrônicos de uso pessoal e doméstico</t>
-  </si>
-  <si>
-    <t>Comércio varejista de mercadorias em geral, com predominância de produtos alimentícios - minimercados, mercearias e armazéns</t>
-  </si>
-  <si>
-    <t>Fabricação de azulejos e pisos</t>
+    <t>6202-3/00</t>
+  </si>
+  <si>
+    <t>2229-3/99</t>
+  </si>
+  <si>
+    <t>3299-0/06</t>
+  </si>
+  <si>
+    <t>2212-9/00</t>
+  </si>
+  <si>
+    <t>4633-8/01</t>
+  </si>
+  <si>
+    <t>4930-2/02</t>
+  </si>
+  <si>
+    <t>4721-1/03</t>
+  </si>
+  <si>
+    <t>Aluguel de máquinas e equipamentos para construção sem operador, exceto andaimes</t>
+  </si>
+  <si>
+    <t>Fabricação de outras máquinas e equipamentos de uso geral não especificados anteriormente, peças e acessórios</t>
+  </si>
+  <si>
+    <t>Comércio atacadista de equipamentos de informática</t>
+  </si>
+  <si>
+    <t>Serviços combinados de escritório e apoio administrativo</t>
   </si>
   <si>
     <t>Comércio varejista de combustíveis para veículos automotores</t>
   </si>
   <si>
-    <t>Distribuidoras de títulos e valores mobiliários</t>
-  </si>
-  <si>
-    <t>Comércio atacadista de cimento</t>
-  </si>
-  <si>
-    <t>Consultoria em tecnologia da informação</t>
-  </si>
-  <si>
-    <t>Administração da infraestrutura portuária</t>
-  </si>
-  <si>
-    <t>Holdings de instituições não financeiras</t>
-  </si>
-  <si>
-    <t>Compra e venda de imóveis próprios</t>
-  </si>
-  <si>
-    <t>Fabricação de embalagens de material plástico</t>
-  </si>
-  <si>
-    <t>Manutenção e reparação de aeronaves, exceto a manutenção na pista</t>
-  </si>
-  <si>
-    <t>Laboratórios clínicos</t>
-  </si>
-  <si>
-    <t>Cultivo de melão</t>
-  </si>
-  <si>
-    <t>Comércio atacadista especializado em outros produtos alimentícios não especificados anteriormente</t>
-  </si>
-  <si>
-    <t>Comércio varejista de produtos farmacêuticos, sem manipulação de fórmulas</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:26:58</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:27:20</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:27:43</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:28:05</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:28:29</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:28:53</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:29:17</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:29:40</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:30:03</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:30:26</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:30:48</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:31:13</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:31:36</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:31:58</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:32:21</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:32:45</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:33:09</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:33:34</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:33:58</t>
-  </si>
-  <si>
-    <t>2025-06-02 09:34:22</t>
+    <t>Desenvolvimento e licenciamento de programas de computador customizáveis</t>
+  </si>
+  <si>
+    <t>Fabricação de artefatos de material plástico para outros usos não especificados anteriormente</t>
+  </si>
+  <si>
+    <t>Fabricação de velas, inclusive decorativas</t>
+  </si>
+  <si>
+    <t>Reforma de pneumáticos usados</t>
+  </si>
+  <si>
+    <t>Comércio atacadista de frutas, verduras, raízes, tubérculos, hortaliças e legumes frescos</t>
+  </si>
+  <si>
+    <t>Transporte rodoviário de carga, exceto produtos perigosos e mudanças, intermunicipal, interestadual e internacional</t>
+  </si>
+  <si>
+    <t>Comércio varejista de laticínios e frios</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:32:35</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:32:59</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:33:21</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:33:45</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:34:08</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:34:31</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:34:55</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:35:18</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:35:43</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:36:07</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:36:31</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:36:54</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:37:17</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:37:40</t>
+  </si>
+  <si>
+    <t>2025-06-07 15:38:03</t>
+  </si>
+  <si>
+    <t>2025-06-09 08:46:01</t>
   </si>
 </sst>
 </file>
@@ -876,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,28 +826,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -945,28 +855,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -974,28 +884,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1003,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1032,28 +942,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1061,28 +971,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1090,28 +1000,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1119,28 +1029,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1148,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1177,28 +1087,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1206,28 +1116,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1235,28 +1145,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1264,28 +1174,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1293,28 +1203,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1322,28 +1232,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1351,144 +1261,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1509,10 +1303,6 @@
     <hyperlink ref="F15" r:id="rId14"/>
     <hyperlink ref="F16" r:id="rId15"/>
     <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
